--- a/src/testData/DCcolleagueData.xlsx
+++ b/src/testData/DCcolleagueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INE12400939\Downloads\git clone\HireAColleague\src\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D711B9-6DAA-4F07-BE2F-85CD2AB800C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896AF472-E9C0-4928-97BE-5DA144C24878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,13 +119,13 @@
     <t>salary</t>
   </si>
   <si>
-    <t>Shameem</t>
-  </si>
-  <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
-    <t>AB223541C</t>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Yadav</t>
+  </si>
+  <si>
+    <t>AB223545C</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -521,7 +521,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>15500517</v>
+        <v>15500523</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -566,7 +566,7 @@
         <v>12345678</v>
       </c>
       <c r="P2">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="Q2" t="s">
         <v>25</v>
